--- a/vocab_dfs/dad_article.xlsx
+++ b/vocab_dfs/dad_article.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>theme</t>
   </si>
@@ -22,74 +22,67 @@
     <t>line</t>
   </si>
   <si>
-    <t>football</t>
-  </si>
-  <si>
-    <t>COP</t>
-  </si>
-  <si>
-    <t>ukraine</t>
-  </si>
-  <si>
-    <t>depute</t>
-  </si>
-  <si>
-    <t>Et puis nous parlerons de sport de la Coupe du monde de football.</t>
-  </si>
-  <si>
-    <t>L'Allemagne se fait surprendre par le Japon.</t>
-  </si>
-  <si>
-    <t>Les Allemands battus par les Japonais.</t>
-  </si>
-  <si>
-    <t>Un match de foot marqué par une image.</t>
-  </si>
-  <si>
-    <t>Une image très forte.</t>
-  </si>
-  <si>
-    <t>Les Allemands ont posé une main sur leur bouche avant le début du match.</t>
-  </si>
-  <si>
-    <t>On vous explique pourquoi à la fin du journal.</t>
-  </si>
-  <si>
-    <t>Ce soir Belgique - Canada.</t>
-  </si>
-  <si>
-    <t>C'est à 19 h. Enfin une image forte au Mondial, juste avant le début du match entre l'Allemagne et le Japon.</t>
-  </si>
-  <si>
-    <t>Les conséquences du réchauffement climatique sur la planète maintenant.</t>
-  </si>
-  <si>
-    <t>Exemple en Australie.</t>
-  </si>
-  <si>
-    <t>Et c'est un rapport, une étude gouvernementale qui le dit aujourd'hui, les climatologues, ceux qui étudient le climat, sont très inquiets pour le futur.</t>
-  </si>
-  <si>
-    <t>Il pleut beaucoup moins, en particulier dans le sud ouest du pays.</t>
-  </si>
-  <si>
-    <t>« Les choses sont en train de changer avec des objectifs plus ambitieux de réduction des émissions de gaz carbonique.</t>
-  </si>
-  <si>
-    <t>La guerre en Ukraine et de nouveaux bombardements russes, bombardements qui ont fait au moins trois morts et six blessés à Kiev.</t>
-  </si>
-  <si>
-    <t>Correspondant régional de Radio France Internationale, Stéphane, trois centrales nucléaires ukrainiennes ont été déconnectées, conséquence?</t>
-  </si>
-  <si>
-    <t>Plus d'électricité dans une grande partie du pays.</t>
-  </si>
-  <si>
-    <t>Et puis à noter Adrien que le président français va une nouvelle fois parler au président russe
-Emmanuel Macron annonce qu'il aura un « contact direct » avec Vladimir Poutine, et ce, « dans les prochains jours » pour notamment parler de la centrale nucléaire de Zaporijia centrale nécessaire pour avoir accès à l'électricité en Ukraine.</t>
-  </si>
-  <si>
-    <t>En France, un député est accusé par sa femme d'être très violent.</t>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Foot</t>
+  </si>
+  <si>
+    <t>Et alors que l'hiver approche à grand pas, les pays de l'Union européenne s'opposent, ne se sont pas mis d'accord sur un prix maximum pour acheter du gaz.</t>
+  </si>
+  <si>
+    <t>Après les bombardements russes d'hier.</t>
+  </si>
+  <si>
+    <t>Il est question d'énergie pour commencer ce journal.</t>
+  </si>
+  <si>
+    <t>Parlons du gaz.</t>
+  </si>
+  <si>
+    <t>Anne, expliquez-nous pourquoi les pays européens ne se sont pas mis d'accord aujourd'hui?</t>
+  </si>
+  <si>
+    <t>Hier, les bombardements russes avaient plongé dans le noir une bonne partie du pays.</t>
+  </si>
+  <si>
+    <t>Sachant qu'il fait froid en Ukraine, les températures sont négatives la nuit.</t>
+  </si>
+  <si>
+    <t>Reportage à présent en Ukraine, dans la ville de Kherson, au sud du pays.</t>
+  </si>
+  <si>
+    <t>La ville a été libérée, les Russes sont partis.</t>
+  </si>
+  <si>
+    <t>Mais alors pourquoi et comment?</t>
+  </si>
+  <si>
+    <t>Les habitants de Kherson, des Ukrainiens, ont-ils quitté la ville juste avant sa libération?</t>
+  </si>
+  <si>
+    <t>Et bien, selon des habitants, ceux qui sont partis n'ont pas été directement forcés de monter dans des bus en direction de la Russie.</t>
+  </si>
+  <si>
+    <t>Et puis nous parlerons sport.</t>
+  </si>
+  <si>
+    <t>Coupe du monde de football.</t>
+  </si>
+  <si>
+    <t>La déception, la désillusion pour les Camerounais, leur équipe de football a perdu aujourd'hui contre les Suisses.</t>
+  </si>
+  <si>
+    <t>Du sport à présent.</t>
+  </si>
+  <si>
+    <t>La Coupe du monde de football.</t>
+  </si>
+  <si>
+    <t>En attendant Brésil- Serbie, c'est à 19 h, temps universel.</t>
+  </si>
+  <si>
+    <t>Vient de commencer Portugal - Ghana, dans la journée, Uruguay - Corée du Sud 0/0.</t>
   </si>
 </sst>
 </file>
@@ -466,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -474,7 +467,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -482,7 +475,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -490,7 +483,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -498,7 +491,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -506,7 +499,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -514,7 +507,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -522,7 +515,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -530,31 +523,31 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -562,7 +555,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -570,47 +563,47 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/vocab_dfs/dad_article.xlsx
+++ b/vocab_dfs/dad_article.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elyebliss/Desktop/Vocabulary/language_learning/vocab_dfs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CE4841-1684-9241-ABAF-53D19B4CB7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="27240" windowHeight="14140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -88,8 +94,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -137,21 +143,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -198,7 +271,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,9 +303,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,6 +355,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -439,174 +548,199 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>3</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="C20" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:C13"/>
+    <mergeCell ref="C14:C20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/vocab_dfs/dad_article.xlsx
+++ b/vocab_dfs/dad_article.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elyebliss/Desktop/Vocabulary/language_learning/vocab_dfs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CE4841-1684-9241-ABAF-53D19B4CB7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D513F2AB-1B98-6346-968D-0C131BCD6CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="27240" windowHeight="14140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11200" yWindow="500" windowWidth="20980" windowHeight="18520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
   <si>
     <t>theme</t>
   </si>
@@ -28,67 +28,102 @@
     <t>line</t>
   </si>
   <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
     <t>Foot</t>
   </si>
   <si>
-    <t>Et alors que l'hiver approche à grand pas, les pays de l'Union européenne s'opposent, ne se sont pas mis d'accord sur un prix maximum pour acheter du gaz.</t>
-  </si>
-  <si>
-    <t>Après les bombardements russes d'hier.</t>
-  </si>
-  <si>
-    <t>Il est question d'énergie pour commencer ce journal.</t>
-  </si>
-  <si>
-    <t>Parlons du gaz.</t>
-  </si>
-  <si>
-    <t>Anne, expliquez-nous pourquoi les pays européens ne se sont pas mis d'accord aujourd'hui?</t>
-  </si>
-  <si>
-    <t>Hier, les bombardements russes avaient plongé dans le noir une bonne partie du pays.</t>
-  </si>
-  <si>
-    <t>Sachant qu'il fait froid en Ukraine, les températures sont négatives la nuit.</t>
-  </si>
-  <si>
-    <t>Reportage à présent en Ukraine, dans la ville de Kherson, au sud du pays.</t>
-  </si>
-  <si>
-    <t>La ville a été libérée, les Russes sont partis.</t>
-  </si>
-  <si>
-    <t>Mais alors pourquoi et comment?</t>
-  </si>
-  <si>
-    <t>Les habitants de Kherson, des Ukrainiens, ont-ils quitté la ville juste avant sa libération?</t>
-  </si>
-  <si>
-    <t>Et bien, selon des habitants, ceux qui sont partis n'ont pas été directement forcés de monter dans des bus en direction de la Russie.</t>
-  </si>
-  <si>
-    <t>Et puis nous parlerons sport.</t>
-  </si>
-  <si>
-    <t>Coupe du monde de football.</t>
-  </si>
-  <si>
-    <t>La déception, la désillusion pour les Camerounais, leur équipe de football a perdu aujourd'hui contre les Suisses.</t>
-  </si>
-  <si>
-    <t>Du sport à présent.</t>
-  </si>
-  <si>
-    <t>La Coupe du monde de football.</t>
-  </si>
-  <si>
-    <t>En attendant Brésil- Serbie, c'est à 19 h, temps universel.</t>
-  </si>
-  <si>
-    <t>Vient de commencer Portugal - Ghana, dans la journée, Uruguay - Corée du Sud 0/0.</t>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Covid</t>
+  </si>
+  <si>
+    <t>Chine</t>
+  </si>
+  <si>
+    <t>Le Mondial de foot au Qatar, pour une place en huitièmes de finale de la compétition Brésil / Suisse vient de commencer.</t>
+  </si>
+  <si>
+    <t>Le Ghana bat la Corée du Sud 3/2.</t>
+  </si>
+  <si>
+    <t>Le Journal en français facile
+L'actualité En Iran, un Gardien de la Révolution a été tué par balles ce matin à Ispahan.</t>
+  </si>
+  <si>
+    <t>Les Gardiens de la Révolution, ce sont les militaires qui dépendent du Guide suprême, Ali Khamenei.</t>
+  </si>
+  <si>
+    <t>Ils ont notamment en charge la protection du système de la République islamique.</t>
+  </si>
+  <si>
+    <t>Ce matin, dans les rues d'Ispahan, à environ 200 kilomètres au sud de Téhéran.</t>
+  </si>
+  <si>
+    <t>Un Gardien de la Révolution a reçu une balle dans le corps.</t>
+  </si>
+  <si>
+    <t>Il est mort.</t>
+  </si>
+  <si>
+    <t>»
+Le coronavirus dans le monde.</t>
+  </si>
+  <si>
+    <t>En France, les chiffres du Covid ne sont pas bons.</t>
+  </si>
+  <si>
+    <t>Plus de 40 000 nouveaux cas ont ainsi été détectés en une semaine.</t>
+  </si>
+  <si>
+    <t>1000 personnes hospitalisées en ce moment en France.</t>
+  </si>
+  <si>
+    <t>Pour Jérôme Marty, médecin près de Toulouse pour se protéger du Covid.</t>
+  </si>
+  <si>
+    <t>Il faut impérativement porter le masque.</t>
+  </si>
+  <si>
+    <t>Parce qu'on rappelle que dans plus de 50 % des cas, cette maladie est totalement asymptomatique.</t>
+  </si>
+  <si>
+    <t>Ça veut dire que vous n'êtes pas conscient que vous portez le virus et donc vous n'êtes pas conscient que vous pouvez le transmettre.</t>
+  </si>
+  <si>
+    <t>Alors on peut se dire mais après tout, il y a très peu de gens fragiles, c'est à eux de se protéger.</t>
+  </si>
+  <si>
+    <t>Sauf que qui vous dit que la personne qui est à côté de vous est fragile ou pas?</t>
+  </si>
+  <si>
+    <t>Ils sont en colère.</t>
+  </si>
+  <si>
+    <t>Et pour le faire savoir, des milliers de Chinois descendent dans la rue.</t>
+  </si>
+  <si>
+    <t>Alors qu'ils n'ont pas le droit de manifester.</t>
+  </si>
+  <si>
+    <t>Ces milliers de Chinoises et Chinois manifestent un peu partout dans le pays.</t>
+  </si>
+  <si>
+    <t>Pourquoi?</t>
+  </si>
+  <si>
+    <t>Ce mouvement de protestation contre les autorités chinoises a un symbole.</t>
+  </si>
+  <si>
+    <t>Une page blanche comme un message politique.</t>
+  </si>
+  <si>
+    <t>Vincent Souriau, Les Etats-Unis, tout d'abord, insistent sur « le droit du peuple chinois à manifester.</t>
+  </si>
+  <si>
+    <t>» Le président allemand dit « comprendre » les manifestants.</t>
+  </si>
+  <si>
+    <t>Enfin, l'ONU appelle les autorités chinoises « à respecter le droit de manifester en paix.</t>
   </si>
 </sst>
 </file>
@@ -120,7 +155,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -135,19 +170,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -177,7 +199,9 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -188,29 +212,24 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,16 +568,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C20" sqref="B1:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="54.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -569,177 +594,260 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3"/>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C2:C13"/>
-    <mergeCell ref="C14:C20"/>
+  <mergeCells count="4">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="C10:C19"/>
+    <mergeCell ref="C20:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/vocab_dfs/dad_article.xlsx
+++ b/vocab_dfs/dad_article.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elyebliss/Desktop/Vocabulary/language_learning/vocab_dfs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92557F05-8EF8-D44F-8F8E-A4E87DD2A9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="25240" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>theme</t>
   </si>
@@ -22,47 +28,32 @@
     <t>line</t>
   </si>
   <si>
-    <t>Visit</t>
-  </si>
-  <si>
-    <t>Foot</t>
-  </si>
-  <si>
-    <t>Medecins</t>
-  </si>
-  <si>
-    <t>Chine</t>
-  </si>
-  <si>
-    <t>Deuxième jour de la visite d'État d'Emmanuel Macron aux États-Unis.</t>
-  </si>
-  <si>
-    <t>Au sommaire de cette édition : Le Mondial de foot.</t>
-  </si>
-  <si>
-    <t>En ce moment deux matchs c'est la mi-temps Canada, Maroc.</t>
-  </si>
-  <si>
-    <t>Le Maroc mène 2/1 un contre les Canadiens et puis match nul à 0 à 0 un entre la Croatie et la Belgique.</t>
-  </si>
-  <si>
-    <t>Et puis enfin en France, les médecins libéraux demandent à être mieux payés.</t>
-  </si>
-  <si>
-    <t>Ils veulent que la consultation d'un patient passe de 25 à 50 euros.</t>
-  </si>
-  <si>
-    <t>Pékin, Shanghai, Wuhan ou encore Canton.</t>
-  </si>
-  <si>
-    <t>Dans toutes ces villes, des milliers de Chinois ont exprimé ces derniers jours leur ras-le-bol contre les autorités.</t>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Les Iraniens manifestent malgré la mort de 448 personnes, dont 60 enfants.</t>
+  </si>
+  <si>
+    <t>La Russie bombarde l'Ukraine.</t>
+  </si>
+  <si>
+    <t>La Russie tire encore des missiles sur une grande partie du pays.</t>
+  </si>
+  <si>
+    <t>La guerre en Ukraine où depuis plusieurs heures maintenant, les habitants font face à de nouvelles frappes de missiles russes.</t>
+  </si>
+  <si>
+    <t>Plusieurs villes du pays sont touchées.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -110,21 +101,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -171,7 +214,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,9 +246,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,6 +298,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -412,86 +491,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="49" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:C6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/vocab_dfs/dad_article.xlsx
+++ b/vocab_dfs/dad_article.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elyebliss/Desktop/Vocabulary/language_learning/vocab_dfs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92557F05-8EF8-D44F-8F8E-A4E87DD2A9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FFC758-7596-D04E-8748-52D9E3979704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="25240" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="23020" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>theme</t>
   </si>
@@ -28,25 +28,64 @@
     <t>line</t>
   </si>
   <si>
-    <t>Iran</t>
+    <t>COP</t>
+  </si>
+  <si>
+    <t>Chine</t>
   </si>
   <si>
     <t>Ukraine</t>
   </si>
   <si>
-    <t>Les Iraniens manifestent malgré la mort de 448 personnes, dont 60 enfants.</t>
-  </si>
-  <si>
-    <t>La Russie bombarde l'Ukraine.</t>
-  </si>
-  <si>
-    <t>La Russie tire encore des missiles sur une grande partie du pays.</t>
-  </si>
-  <si>
-    <t>La guerre en Ukraine où depuis plusieurs heures maintenant, les habitants font face à de nouvelles frappes de missiles russes.</t>
-  </si>
-  <si>
-    <t>Plusieurs villes du pays sont touchées.</t>
+    <t>Football</t>
+  </si>
+  <si>
+    <t>Sauver la nature, c'est le but de la COP15, la Conférence des Nations Unies sur la biodiversité qui commence aujourd'hui à Montréal.</t>
+  </si>
+  <si>
+    <t>Montréal sera-t-il pour la biodiversité l'équivalent de l'accord de Paris pour le climat?</t>
+  </si>
+  <si>
+    <t>Le monde vivant joue un rôle indispensable alors que les engagements passés n'ont pas été tenus.</t>
+  </si>
+  <si>
+    <t>En Chine, Adrien, la colère des habitants aura fait évoluer, changer la politique sanitaire de leur pays.</t>
+  </si>
+  <si>
+    <t>Suite aux manifestations parfois violentes contre la politique chinoise dite du zéro Covid.</t>
+  </si>
+  <si>
+    <t>La guerre en Ukraine.</t>
+  </si>
+  <si>
+    <t>De nouveaux bombardements ont fait aujourd'hui au moins six morts.</t>
+  </si>
+  <si>
+    <t>Des civils qui habitaient la ville de Kourakhove.</t>
+  </si>
+  <si>
+    <t>Au moins six morts, six civils tués et cinq autres blessés dans une frappe russe.</t>
+  </si>
+  <si>
+    <t>Ça s'est passé aujourd'hui sur la ville de Kourakhove.</t>
+  </si>
+  <si>
+    <t>située à environ 50 kilomètres à l'ouest de Donetsk.</t>
+  </si>
+  <si>
+    <t>C'est ce que déplore le président Volodymyr Zelensky.</t>
+  </si>
+  <si>
+    <t>Pour l'électricité, c'est deux ou trois fois par jour.</t>
+  </si>
+  <si>
+    <t>Le Mondial de foot au Qatar.</t>
+  </si>
+  <si>
+    <t>Pas de match aujourd'hui, ni demain.</t>
+  </si>
+  <si>
+    <t>Les prochains matches se joueront vendredi et samedi.</t>
   </si>
 </sst>
 </file>
@@ -142,18 +181,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,73 +542,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C15" sqref="B1:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="49" customWidth="1"/>
+    <col min="2" max="2" width="68.1640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3"/>
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C3:C6"/>
+  <mergeCells count="4">
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C14"/>
+    <mergeCell ref="C15:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/vocab_dfs/dad_article.xlsx
+++ b/vocab_dfs/dad_article.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elyebliss/Desktop/Vocabulary/language_learning/vocab_dfs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FFC758-7596-D04E-8748-52D9E3979704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61422972-DBE6-694A-9D85-1E364B4A358F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="23020" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="27900" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>theme</t>
   </si>
@@ -28,64 +28,70 @@
     <t>line</t>
   </si>
   <si>
-    <t>COP</t>
+    <t>Afghan</t>
   </si>
   <si>
     <t>Chine</t>
   </si>
   <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Football</t>
-  </si>
-  <si>
-    <t>Sauver la nature, c'est le but de la COP15, la Conférence des Nations Unies sur la biodiversité qui commence aujourd'hui à Montréal.</t>
-  </si>
-  <si>
-    <t>Montréal sera-t-il pour la biodiversité l'équivalent de l'accord de Paris pour le climat?</t>
-  </si>
-  <si>
-    <t>Le monde vivant joue un rôle indispensable alors que les engagements passés n'ont pas été tenus.</t>
-  </si>
-  <si>
-    <t>En Chine, Adrien, la colère des habitants aura fait évoluer, changer la politique sanitaire de leur pays.</t>
-  </si>
-  <si>
-    <t>Suite aux manifestations parfois violentes contre la politique chinoise dite du zéro Covid.</t>
-  </si>
-  <si>
-    <t>La guerre en Ukraine.</t>
-  </si>
-  <si>
-    <t>De nouveaux bombardements ont fait aujourd'hui au moins six morts.</t>
-  </si>
-  <si>
-    <t>Des civils qui habitaient la ville de Kourakhove.</t>
-  </si>
-  <si>
-    <t>Au moins six morts, six civils tués et cinq autres blessés dans une frappe russe.</t>
-  </si>
-  <si>
-    <t>Ça s'est passé aujourd'hui sur la ville de Kourakhove.</t>
-  </si>
-  <si>
-    <t>située à environ 50 kilomètres à l'ouest de Donetsk.</t>
-  </si>
-  <si>
-    <t>C'est ce que déplore le président Volodymyr Zelensky.</t>
-  </si>
-  <si>
-    <t>Pour l'électricité, c'est deux ou trois fois par jour.</t>
-  </si>
-  <si>
-    <t>Le Mondial de foot au Qatar.</t>
-  </si>
-  <si>
-    <t>Pas de match aujourd'hui, ni demain.</t>
-  </si>
-  <si>
-    <t>Les prochains matches se joueront vendredi et samedi.</t>
+    <t>Russie</t>
+  </si>
+  <si>
+    <t>16 heures 04 en temps universel, le journal en français facile nous emmène à présent en Afghanistan où des gardes armés sont postés devant les universités.</t>
+  </si>
+  <si>
+    <t>Ces gardes empêchent les jeunes femmes d'entrer.</t>
+  </si>
+  <si>
+    <t>Hier, les talibans ont interdit aux filles de se rendre à l'université, d'apprendre à l'université.</t>
+  </si>
+  <si>
+    <t>Elles n'ont déjà plus le droit de se rendre à l'école secondaire, c'est-à-dire au collège ou au lycée.</t>
+  </si>
+  <si>
+    <t>Rishi Sunak, premier ministre britannique, dénonce aujourd'hui « un grave retour en arrière ».</t>
+  </si>
+  <si>
+    <t>La Chine où les cas de coronavirus se multiplient.</t>
+  </si>
+  <si>
+    <t>L'OMS, l'Organisation mondiale de la santé est très inquiète de la situation.</t>
+  </si>
+  <si>
+    <t>Dans certaines régions, les personnes malades du Covid-19 sont même autorisées à travailler tellement les contaminations sont nombreuses.</t>
+  </si>
+  <si>
+    <t>À la une de ce journal, Zelensky aux Etats-Unis, Poutine près de son armée.</t>
+  </si>
+  <si>
+    <t>Le président ukrainien arrive aujourd'hui à Washington.</t>
+  </si>
+  <si>
+    <t>Volodymyr Zelensky quitte l'Ukraine pour la première fois depuis le début de l'invasion russe dans son pays, le 24 février dernier.</t>
+  </si>
+  <si>
+    <t>Il rencontrera le président américain Joe Biden à la Maison Blanche et parlera ensuite devant le Congrès.</t>
+  </si>
+  <si>
+    <t>Les Etats-Unis devraient promettre une nouvelle aide financière à Kiev.</t>
+  </si>
+  <si>
+    <t>En Russie, le Kremlin n'attend pas grand-chose de cette visite.</t>
+  </si>
+  <si>
+    <t>Du moins, pas de changement de position ukrainienne sur les négociations de paix.</t>
+  </si>
+  <si>
+    <t>Le chef du Kremlin l'assure : ses soldats auront tout ce qu'il faut pour poursuivre la guerre en Ukraine.</t>
+  </si>
+  <si>
+    <t>Oui, il n'y aura pas de restrictions financières pour l'effort de guerre, a notamment déclaré Vladimir Poutine.</t>
+  </si>
+  <si>
+    <t>Le pays donnera à l'armée tout ce qu'elle demandera.</t>
+  </si>
+  <si>
+    <t>Oui, cette fois, c'est le ministre russe de la Défense, Sergueï Choïgou, qui a fait cette annonce.</t>
   </si>
 </sst>
 </file>
@@ -181,29 +187,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -222,7 +216,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -542,175 +536,204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C15" sqref="B1:C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="68.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C14"/>
-    <mergeCell ref="C15:C17"/>
+  <mergeCells count="3">
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/vocab_dfs/dad_article.xlsx
+++ b/vocab_dfs/dad_article.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elyebliss/Desktop/Vocabulary/language_learning/vocab_dfs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61422972-DBE6-694A-9D85-1E364B4A358F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C521E5-4B09-DF4C-B9F9-71EFC690E531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="27900" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="23700" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>theme</t>
   </si>
@@ -28,70 +28,40 @@
     <t>line</t>
   </si>
   <si>
-    <t>Afghan</t>
-  </si>
-  <si>
-    <t>Chine</t>
-  </si>
-  <si>
-    <t>Russie</t>
-  </si>
-  <si>
-    <t>16 heures 04 en temps universel, le journal en français facile nous emmène à présent en Afghanistan où des gardes armés sont postés devant les universités.</t>
-  </si>
-  <si>
-    <t>Ces gardes empêchent les jeunes femmes d'entrer.</t>
-  </si>
-  <si>
-    <t>Hier, les talibans ont interdit aux filles de se rendre à l'université, d'apprendre à l'université.</t>
-  </si>
-  <si>
-    <t>Elles n'ont déjà plus le droit de se rendre à l'école secondaire, c'est-à-dire au collège ou au lycée.</t>
-  </si>
-  <si>
-    <t>Rishi Sunak, premier ministre britannique, dénonce aujourd'hui « un grave retour en arrière ».</t>
-  </si>
-  <si>
-    <t>La Chine où les cas de coronavirus se multiplient.</t>
-  </si>
-  <si>
-    <t>L'OMS, l'Organisation mondiale de la santé est très inquiète de la situation.</t>
-  </si>
-  <si>
-    <t>Dans certaines régions, les personnes malades du Covid-19 sont même autorisées à travailler tellement les contaminations sont nombreuses.</t>
-  </si>
-  <si>
-    <t>À la une de ce journal, Zelensky aux Etats-Unis, Poutine près de son armée.</t>
-  </si>
-  <si>
-    <t>Le président ukrainien arrive aujourd'hui à Washington.</t>
-  </si>
-  <si>
-    <t>Volodymyr Zelensky quitte l'Ukraine pour la première fois depuis le début de l'invasion russe dans son pays, le 24 février dernier.</t>
-  </si>
-  <si>
-    <t>Il rencontrera le président américain Joe Biden à la Maison Blanche et parlera ensuite devant le Congrès.</t>
-  </si>
-  <si>
-    <t>Les Etats-Unis devraient promettre une nouvelle aide financière à Kiev.</t>
-  </si>
-  <si>
-    <t>En Russie, le Kremlin n'attend pas grand-chose de cette visite.</t>
-  </si>
-  <si>
-    <t>Du moins, pas de changement de position ukrainienne sur les négociations de paix.</t>
-  </si>
-  <si>
-    <t>Le chef du Kremlin l'assure : ses soldats auront tout ce qu'il faut pour poursuivre la guerre en Ukraine.</t>
-  </si>
-  <si>
-    <t>Oui, il n'y aura pas de restrictions financières pour l'effort de guerre, a notamment déclaré Vladimir Poutine.</t>
-  </si>
-  <si>
-    <t>Le pays donnera à l'armée tout ce qu'elle demandera.</t>
-  </si>
-  <si>
-    <t>Oui, cette fois, c'est le ministre russe de la Défense, Sergueï Choïgou, qui a fait cette annonce.</t>
+    <t>Kurde</t>
+  </si>
+  <si>
+    <t>C'était ce matin.</t>
+  </si>
+  <si>
+    <t>Trois morts, trois personnes tuées par balles.</t>
+  </si>
+  <si>
+    <t>Ce sont des hommes qui appartenaient à la communauté kurde.</t>
+  </si>
+  <si>
+    <t>Ce drame en plein Paris, faisant trois morts et trois blessés.</t>
+  </si>
+  <si>
+    <t>Ça s'est passé en milieu de matinée.</t>
+  </si>
+  <si>
+    <t>Un homme, un Français âgé de 69 ans, a tiré avec une arme à feu.</t>
+  </si>
+  <si>
+    <t>Il a tué trois personnes d'origine kurde et en a blessé trois autres.</t>
+  </si>
+  <si>
+    <t>Les forces de l'ordre sont déployées.</t>
+  </si>
+  <si>
+    <t>Y'a un peu plus de dix ans.</t>
+  </si>
+  <si>
+    <t>Trois militantes kurdes avaient été assassinées en France, déjà à Paris.</t>
+  </si>
+  <si>
+    <t>Donc, c'est encore un événement qui est très présent dans les mémoires.</t>
   </si>
 </sst>
 </file>
@@ -123,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -148,6 +118,39 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -187,17 +190,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,19 +547,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C20"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="71" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -563,177 +571,103 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C12" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C20"/>
+  <mergeCells count="1">
+    <mergeCell ref="C2:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/vocab_dfs/dad_article.xlsx
+++ b/vocab_dfs/dad_article.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elyebliss/Desktop/Vocabulary/language_learning/vocab_dfs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C521E5-4B09-DF4C-B9F9-71EFC690E531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198E2B91-859C-F14E-88B7-CA4737D15056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="23700" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="27500" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>theme</t>
   </si>
@@ -28,40 +28,52 @@
     <t>line</t>
   </si>
   <si>
-    <t>Kurde</t>
-  </si>
-  <si>
-    <t>C'était ce matin.</t>
-  </si>
-  <si>
-    <t>Trois morts, trois personnes tuées par balles.</t>
-  </si>
-  <si>
-    <t>Ce sont des hommes qui appartenaient à la communauté kurde.</t>
-  </si>
-  <si>
-    <t>Ce drame en plein Paris, faisant trois morts et trois blessés.</t>
-  </si>
-  <si>
-    <t>Ça s'est passé en milieu de matinée.</t>
-  </si>
-  <si>
-    <t>Un homme, un Français âgé de 69 ans, a tiré avec une arme à feu.</t>
-  </si>
-  <si>
-    <t>Il a tué trois personnes d'origine kurde et en a blessé trois autres.</t>
-  </si>
-  <si>
-    <t>Les forces de l'ordre sont déployées.</t>
-  </si>
-  <si>
-    <t>Y'a un peu plus de dix ans.</t>
-  </si>
-  <si>
-    <t>Trois militantes kurdes avaient été assassinées en France, déjà à Paris.</t>
-  </si>
-  <si>
-    <t>Donc, c'est encore un événement qui est très présent dans les mémoires.</t>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Faso</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Au Brésil, à présent, Adrien.</t>
+  </si>
+  <si>
+    <t>230 000 personnes et un président venus dire au revoir à Pelé.</t>
+  </si>
+  <si>
+    <t>Il est arrivé près du stade en hélicoptère.</t>
+  </si>
+  <si>
+    <t>Lula a aussitôt présenter ses condoléances.</t>
+  </si>
+  <si>
+    <t>Cette macabre découverte au Burkina Faso.</t>
+  </si>
+  <si>
+    <t>28 personnes retrouvées mortes dans la localité de Nouna, c'est l'incompréhension.</t>
+  </si>
+  <si>
+    <t>Le gouvernement burkinabè annonce l'ouverture d'une enquête.</t>
+  </si>
+  <si>
+    <t>28 morts découverts à Nouna, dans le nord ouest du Burkina Faso la veille du Nouvel An.</t>
+  </si>
+  <si>
+    <t>Annonce faite par le gouvernement.</t>
+  </si>
+  <si>
+    <t>C'est l'inquiétude pour les habitants, c'est l'inquiétude aussi pour un collectif de citoyens, un collectif contre l'impunité et la stigmatisation des communautés.</t>
+  </si>
+  <si>
+    <t>Un sommet pour discuter de l'aide financière et militaire à apporter à l'Ukraine.</t>
+  </si>
+  <si>
+    <t>Le président du Conseil européen, Charles Michel, et la présidente de la Commission européenne, Ursula von der Leyen, seront à Kiev.</t>
+  </si>
+  <si>
+    <t>l'Union européenne confirme la date du 3 février, mais pas le lieu, puisque cette réunion reste encore dans un endroit tenu secret, et ce pour des raisons de sécurité.</t>
   </si>
 </sst>
 </file>
@@ -93,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -118,39 +130,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -190,25 +169,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,18 +518,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B1" sqref="B1:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="75.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -571,103 +542,123 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="6"/>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6"/>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6"/>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C2:C12"/>
+  <mergeCells count="3">
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="C12:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
